--- a/config_project/signal_dictionary.xlsx
+++ b/config_project/signal_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TimeSelecting\config_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TimeSelecting_v2\config_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91469EAD-6CA4-4E28-8982-DFD76BE4B363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1DD059-3EDC-4C24-9C59-AA67CC39688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38160" yWindow="-21705" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="0" windowWidth="57600" windowHeight="17925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
   <si>
     <t>signal_name</t>
   </si>
@@ -58,29 +58,6 @@
   </si>
   <si>
     <t>EarningsYield</t>
-  </si>
-  <si>
-    <t>[0.5,1]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[15,30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
   </si>
   <si>
     <t>LHBProportion</t>
@@ -121,9 +98,6 @@
   </si>
   <si>
     <t>CreditSpread_5Y</t>
-  </si>
-  <si>
-    <t>TermSpread_9Y</t>
   </si>
   <si>
     <t>M1M2</t>
@@ -714,8 +688,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -740,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -749,18 +723,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -777,13 +751,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -800,16 +774,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3">
         <v>45</v>
@@ -826,13 +800,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>45</v>
@@ -849,16 +823,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>90</v>
@@ -875,16 +849,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>90</v>
@@ -901,16 +875,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
       </c>
       <c r="E8">
         <v>120</v>
@@ -927,16 +901,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
       </c>
       <c r="E9">
         <v>120</v>
@@ -953,13 +927,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -976,14 +950,14 @@
     </row>
     <row r="11" spans="1:8" ht="15">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2">
         <v>20</v>
@@ -1000,13 +974,13 @@
     </row>
     <row r="12" spans="1:8" ht="15">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
         <v>20</v>
@@ -1023,13 +997,13 @@
     </row>
     <row r="13" spans="1:8" ht="15">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1046,13 +1020,13 @@
     </row>
     <row r="14" spans="1:8" ht="15">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1069,13 +1043,13 @@
     </row>
     <row r="15" spans="1:8" ht="15">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1092,13 +1066,13 @@
     </row>
     <row r="16" spans="1:8" ht="15">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1115,13 +1089,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1130,7 +1104,7 @@
         <v>0.9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1138,13 +1112,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1153,7 +1127,7 @@
         <v>0.9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1161,13 +1135,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1176,7 +1150,7 @@
         <v>0.9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1184,13 +1158,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1199,7 +1173,7 @@
         <v>0.9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1207,13 +1181,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1222,7 +1196,7 @@
         <v>0.9</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1230,13 +1204,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1245,7 +1219,7 @@
         <v>0.9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1253,13 +1227,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1268,7 +1242,7 @@
         <v>0.9</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1276,13 +1250,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1291,7 +1265,7 @@
         <v>0.9</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1299,13 +1273,13 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1314,7 +1288,7 @@
         <v>0.9</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1322,13 +1296,13 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1337,7 +1311,7 @@
         <v>0.9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1345,13 +1319,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1360,7 +1334,7 @@
         <v>0.9</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1368,13 +1342,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1383,7 +1357,7 @@
         <v>0.9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1391,13 +1365,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1406,7 +1380,7 @@
         <v>0.9</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1414,13 +1388,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1429,7 +1403,7 @@
         <v>0.9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1437,13 +1411,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1452,7 +1426,7 @@
         <v>0.9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1460,13 +1434,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1475,7 +1449,7 @@
         <v>0.9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1491,310 +1465,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210C6512-65F9-4D17-9360-2A4CC188B9D4}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="3">
-        <v>45</v>
-      </c>
-      <c r="F1">
-        <v>0.9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>0.9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4">
-        <v>90</v>
-      </c>
-      <c r="F4">
-        <v>0.9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>120</v>
-      </c>
-      <c r="F5">
-        <v>0.9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6">
-        <v>120</v>
-      </c>
-      <c r="F6">
-        <v>0.9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7">
-        <v>90</v>
-      </c>
-      <c r="F7">
-        <v>0.9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>0.9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>0.9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>0.9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
